--- a/New Customers Test Cases V1.xlsx
+++ b/New Customers Test Cases V1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Bank\Git\Новая папка\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Рабочий стол\QA\Bank\banking-qa-web-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22DC0753-515E-4F6E-A86B-23864FCE48A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635A1057-0164-4F4F-ACCB-EB7FCFA91976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CD9A2783-F2E1-452D-A7F6-1D73AE3098D4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="10920" xr2:uid="{CD9A2783-F2E1-452D-A7F6-1D73AE3098D4}"/>
   </bookViews>
   <sheets>
     <sheet name="New Customers" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>John</t>
   </si>
   <si>
-    <t>Tipe "John" in "Customer Name" field</t>
-  </si>
-  <si>
     <t>Customer name accepted</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>J0hn</t>
   </si>
   <si>
-    <t>Tipe "J0hn" in "Customer Name" field</t>
-  </si>
-  <si>
     <t>"Numbers are not allowed" error message</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>Joh!</t>
   </si>
   <si>
-    <t>Tipe "Joh!" in "Customer Name" field</t>
-  </si>
-  <si>
     <t>"Special characters are not allowed" error message</t>
   </si>
   <si>
@@ -108,9 +99,6 @@
     <t>" John"</t>
   </si>
   <si>
-    <t>Tipe " John" in "Customer Name" field (start with space character)</t>
-  </si>
-  <si>
     <t>"First characters can not be spase" error message</t>
   </si>
   <si>
@@ -126,471 +114,483 @@
     <t xml:space="preserve"> Empty "Customer Name" field</t>
   </si>
   <si>
+    <t>"Customer name must not be blank" error message</t>
+  </si>
+  <si>
+    <t>NC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Address" field, letter only </t>
+  </si>
+  <si>
+    <t>Amphitheatre Pkwy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Address" field accepted</t>
+  </si>
+  <si>
+    <t>NC7</t>
+  </si>
+  <si>
+    <t>"Address" field, letter + digits</t>
+  </si>
+  <si>
+    <t>1600 Amphitheatre Pkwy</t>
+  </si>
+  <si>
+    <t>NC8</t>
+  </si>
+  <si>
+    <t>"Address" field,  letter + sp. characters</t>
+  </si>
+  <si>
+    <t>Amphitheatre Pkwy #</t>
+  </si>
+  <si>
+    <t>NC9</t>
+  </si>
+  <si>
+    <t>"Address" field starts with space character</t>
+  </si>
+  <si>
+    <t>" Amphitheatre Pkwy"</t>
+  </si>
+  <si>
+    <t>NC10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Address" required field </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Empty "Address" field</t>
+  </si>
+  <si>
+    <t>"Address must not be blank" error message</t>
+  </si>
+  <si>
+    <t>No Error message</t>
+  </si>
+  <si>
+    <t>NC11</t>
+  </si>
+  <si>
+    <t>"City" field, letter only</t>
+  </si>
+  <si>
+    <t>MountainView</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "City" field accepted</t>
+  </si>
+  <si>
+    <t>NC12</t>
+  </si>
+  <si>
+    <t>"City" field, letter + digits</t>
+  </si>
+  <si>
+    <t>M0untainView</t>
+  </si>
+  <si>
+    <t>NC13</t>
+  </si>
+  <si>
+    <t>"City" field, letter + sp. characters</t>
+  </si>
+  <si>
+    <t>MountainV!ew</t>
+  </si>
+  <si>
+    <t>NC14</t>
+  </si>
+  <si>
+    <t>"City" field starts with space character</t>
+  </si>
+  <si>
+    <t>" MountainView"</t>
+  </si>
+  <si>
+    <t>"Numbers are not allowed" is shown</t>
+  </si>
+  <si>
+    <t>NC15</t>
+  </si>
+  <si>
+    <t>"City" required field</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Empty "City" field</t>
+  </si>
+  <si>
+    <t>"City must not be blank" error message</t>
+  </si>
+  <si>
+    <t>NC16</t>
+  </si>
+  <si>
+    <t>"State" field, letter only</t>
+  </si>
+  <si>
+    <t>Califirnia</t>
+  </si>
+  <si>
+    <t>"State" field accepted</t>
+  </si>
+  <si>
+    <t>NC17</t>
+  </si>
+  <si>
+    <t>"State" field, letter + digits</t>
+  </si>
+  <si>
+    <t>Ca1ifirnia</t>
+  </si>
+  <si>
+    <t>NC18</t>
+  </si>
+  <si>
+    <t>"State" field, letter + sp. characters</t>
+  </si>
+  <si>
+    <t>Ca!ifirnia</t>
+  </si>
+  <si>
+    <t>NC19</t>
+  </si>
+  <si>
+    <t>"State" field starts with space character</t>
+  </si>
+  <si>
+    <t>" Califirnia"</t>
+  </si>
+  <si>
+    <t>NC20</t>
+  </si>
+  <si>
+    <t>"State" required field</t>
+  </si>
+  <si>
+    <t>"State must not be blank" error message</t>
+  </si>
+  <si>
+    <t>NC21</t>
+  </si>
+  <si>
+    <t>"PIN" field, digits only</t>
+  </si>
+  <si>
+    <t>"PIN" accepted</t>
+  </si>
+  <si>
+    <t>NC22</t>
+  </si>
+  <si>
+    <t>"PIN" field boundary values, more than 6 character</t>
+  </si>
+  <si>
+    <t>NC23</t>
+  </si>
+  <si>
+    <t>"PIN" field boundary values, less than 6 character</t>
+  </si>
+  <si>
+    <t>"PIN Code must have 6 Digits" error message</t>
+  </si>
+  <si>
+    <t>NC24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"PIN" field, digits + letter </t>
+  </si>
+  <si>
+    <t>11111I</t>
+  </si>
+  <si>
+    <t>"Characters are not allowed" error message</t>
+  </si>
+  <si>
+    <t>NC25</t>
+  </si>
+  <si>
+    <t>"PIN" field, letter + sp. characters</t>
+  </si>
+  <si>
+    <t>11111/</t>
+  </si>
+  <si>
+    <t>NC26</t>
+  </si>
+  <si>
+    <t>"PIN" field starts with space character</t>
+  </si>
+  <si>
+    <t>" 11111"</t>
+  </si>
+  <si>
+    <t>NC27</t>
+  </si>
+  <si>
+    <t>"PIN" required field</t>
+  </si>
+  <si>
+    <t>"PIN Code must not be blank" error message</t>
+  </si>
+  <si>
+    <t>NC28</t>
+  </si>
+  <si>
+    <t>"Telephone Number" field, digits only</t>
+  </si>
+  <si>
+    <t>"Telephone Number" accepted</t>
+  </si>
+  <si>
+    <t>NC29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Telephone Number" field, digits + letter </t>
+  </si>
+  <si>
+    <t>1514670870o</t>
+  </si>
+  <si>
+    <t>NC30</t>
+  </si>
+  <si>
+    <t>"Telephone Number" field, letter + sp. characters</t>
+  </si>
+  <si>
+    <t>151-46-70-8700</t>
+  </si>
+  <si>
+    <t>NC31</t>
+  </si>
+  <si>
+    <t>"Telephone Number" field starts with space character</t>
+  </si>
+  <si>
+    <t>" 15146708700"</t>
+  </si>
+  <si>
+    <t>NC32</t>
+  </si>
+  <si>
+    <t>"Telephone Number" field contain space character</t>
+  </si>
+  <si>
+    <t>151 46 70 8700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Telephone cannot have space" error message </t>
+  </si>
+  <si>
+    <t>NC33</t>
+  </si>
+  <si>
+    <t>"Telephone Number" required field</t>
+  </si>
+  <si>
+    <t>"Telephone Number must not be blank" error message</t>
+  </si>
+  <si>
+    <t>NC34</t>
+  </si>
+  <si>
+    <t>Valid local/@/valid domain</t>
+  </si>
+  <si>
+    <t>johndoe_273@gmail.com</t>
+  </si>
+  <si>
+    <t>Email accepted</t>
+  </si>
+  <si>
+    <t>NC38</t>
+  </si>
+  <si>
+    <t>Invalid local part/@/ valid domain</t>
+  </si>
+  <si>
+    <t>.johndoe_273@gmail.com</t>
+  </si>
+  <si>
+    <t>Email rejected, "Email-ID is not valid" Error message</t>
+  </si>
+  <si>
+    <t>NC39</t>
+  </si>
+  <si>
+    <t>valid local part/@/invalid domain</t>
+  </si>
+  <si>
+    <t>johndoe273_@gmail..com</t>
+  </si>
+  <si>
+    <t>NC40</t>
+  </si>
+  <si>
+    <t>empty local part /@/valid domain</t>
+  </si>
+  <si>
+    <t>@gmail.com</t>
+  </si>
+  <si>
+    <t>NC41</t>
+  </si>
+  <si>
+    <t>valid local part /no @/valid domain</t>
+  </si>
+  <si>
+    <t>johndoe_273gmail.com</t>
+  </si>
+  <si>
+    <t>Email rejected, "invalid Email" Error message</t>
+  </si>
+  <si>
+    <t>NC42</t>
+  </si>
+  <si>
+    <t>"Email" required field</t>
+  </si>
+  <si>
+    <t>Empty "Email" field</t>
+  </si>
+  <si>
+    <t>"Email must not be blank" error message</t>
+  </si>
+  <si>
+    <t>Type "111111" in "PIN" field</t>
+  </si>
+  <si>
+    <t>Type "1111111" in "PIN" field (7 cheracters)</t>
+  </si>
+  <si>
+    <t>First 6 haracters Typed</t>
+  </si>
+  <si>
+    <t>Type "11111" in "PIN" field (5 cheracters)</t>
+  </si>
+  <si>
+    <t>Type "11111I" in "PIN" field</t>
+  </si>
+  <si>
+    <t>Type "11111/" in "PIN" field</t>
+  </si>
+  <si>
+    <t>Type " 11111" in "PIN" field (start with space character)</t>
+  </si>
+  <si>
+    <t>Type "15146708700" in "Telephone Number" field</t>
+  </si>
+  <si>
+    <t>Type "1514670870o" in "Telephone Number" field</t>
+  </si>
+  <si>
+    <t>Type "151-46-70-8700" in "Telephone Number" field</t>
+  </si>
+  <si>
+    <t>Type " 15146708700" in "Telephone Number" field (start with space character)</t>
+  </si>
+  <si>
+    <t>Type "151 46 70 8700" in "Telephone Number" field</t>
+  </si>
+  <si>
+    <t>Type "johndoe_273@gmail.com" in "Email" field</t>
+  </si>
+  <si>
+    <t>Type ".johndoe_273@gmail.com" in "Email" field</t>
+  </si>
+  <si>
+    <t>Type "johndoe_273@gmail..com" in "Email" field</t>
+  </si>
+  <si>
+    <t>Type "@gmail.com" in "Email" field</t>
+  </si>
+  <si>
+    <t>Type "johndoe_273gmail.com" in "Email" field</t>
+  </si>
+  <si>
+    <t>Type "John" in "Customer Name" field</t>
+  </si>
+  <si>
+    <t>Type "J0hn" in "Customer Name" field</t>
+  </si>
+  <si>
+    <t>Type "Joh!" in "Customer Name" field</t>
+  </si>
+  <si>
+    <t>Type " John" in "Customer Name" field (start with space character)</t>
+  </si>
+  <si>
+    <t>Type "Amphitheatre Pkwy" in "Address" field</t>
+  </si>
+  <si>
+    <t>Type "1600 Amphitheatre Pkwy" in "Address" field</t>
+  </si>
+  <si>
+    <t>Type "Amphitheatre Pkwy #" in "Address" field</t>
+  </si>
+  <si>
+    <t>Type " Amphitheatre Pkwy" in "Address" field (start with space character)</t>
+  </si>
+  <si>
+    <t>Type "MountainView" in "City" field</t>
+  </si>
+  <si>
+    <t>Type "M0untainView" in "City" field</t>
+  </si>
+  <si>
+    <t>Type "MountainV!ew" in "City" field</t>
+  </si>
+  <si>
+    <t>Type " MountainView" in "City" field (start with space character)</t>
+  </si>
+  <si>
+    <t>Type "Califirnia" in "State" field</t>
+  </si>
+  <si>
+    <t>Type "Ca1ifirnia" in "State" field</t>
+  </si>
+  <si>
+    <t>Type "Ca!ifirnia" in "State" field</t>
+  </si>
+  <si>
+    <t>Type " Califirnia" in "State" field (start with space character)</t>
+  </si>
+  <si>
     <t>1) Navigate mouse pointer over the "Customer Name" field and select it
-2) Do not tipe any value in  "Customer Name" field
+2) Do not type any value in  "Customer Name" field
 3) Press "TAB" and move to next field</t>
   </si>
   <si>
-    <t>"Customer name must not be blank" error message</t>
-  </si>
-  <si>
-    <t>NC6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Address" field, letter only </t>
-  </si>
-  <si>
-    <t>Amphitheatre Pkwy</t>
-  </si>
-  <si>
-    <t>Tipe "Amphitheatre Pkwy" in "Address" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Address" field accepted</t>
-  </si>
-  <si>
-    <t>NC7</t>
-  </si>
-  <si>
-    <t>"Address" field, letter + digits</t>
-  </si>
-  <si>
-    <t>1600 Amphitheatre Pkwy</t>
-  </si>
-  <si>
-    <t>Tipe "1600 Amphitheatre Pkwy" in "Address" field</t>
-  </si>
-  <si>
-    <t>NC8</t>
-  </si>
-  <si>
-    <t>"Address" field,  letter + sp. characters</t>
-  </si>
-  <si>
-    <t>Amphitheatre Pkwy #</t>
-  </si>
-  <si>
-    <t>Tipe "Amphitheatre Pkwy #" in "Address" field</t>
-  </si>
-  <si>
-    <t>NC9</t>
-  </si>
-  <si>
-    <t>"Address" field starts with space character</t>
-  </si>
-  <si>
-    <t>" Amphitheatre Pkwy"</t>
-  </si>
-  <si>
-    <t>Tipe " Amphitheatre Pkwy" in "Address" field (start with space character)</t>
-  </si>
-  <si>
-    <t>NC10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Address" required field </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Empty "Address" field</t>
-  </si>
-  <si>
     <t>1) Navigate mouse pointer over the "Address" field and select it
-2) Do not tipe any value in  "Address" field
+2) Do not type any value in  "Address" field
 3) Press "TAB" and move to next field</t>
   </si>
   <si>
-    <t>"Address must not be blank" error message</t>
-  </si>
-  <si>
-    <t>No Error message</t>
-  </si>
-  <si>
-    <t>NC11</t>
-  </si>
-  <si>
-    <t>"City" field, letter only</t>
-  </si>
-  <si>
-    <t>MountainView</t>
-  </si>
-  <si>
-    <t>Tipe "MountainView" in "City" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "City" field accepted</t>
-  </si>
-  <si>
-    <t>NC12</t>
-  </si>
-  <si>
-    <t>"City" field, letter + digits</t>
-  </si>
-  <si>
-    <t>M0untainView</t>
-  </si>
-  <si>
-    <t>Tipe "M0untainView" in "City" field</t>
-  </si>
-  <si>
-    <t>NC13</t>
-  </si>
-  <si>
-    <t>"City" field, letter + sp. characters</t>
-  </si>
-  <si>
-    <t>MountainV!ew</t>
-  </si>
-  <si>
-    <t>Tipe "MountainV!ew" in "City" field</t>
-  </si>
-  <si>
-    <t>NC14</t>
-  </si>
-  <si>
-    <t>"City" field starts with space character</t>
-  </si>
-  <si>
-    <t>" MountainView"</t>
-  </si>
-  <si>
-    <t>Tipe " MountainView" in "City" field (start with space character)</t>
-  </si>
-  <si>
-    <t>"Numbers are not allowed" is shown</t>
-  </si>
-  <si>
-    <t>NC15</t>
-  </si>
-  <si>
-    <t>"City" required field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Empty "City" field</t>
-  </si>
-  <si>
     <t>1) Navigate mouse pointer over the "City" field and select it
-2) Do not tipe any value in  "City" field
+2) Do not type any value in  "City" field
 3) Press "TAB" and move to next field</t>
   </si>
   <si>
-    <t>"City must not be blank" error message</t>
-  </si>
-  <si>
-    <t>NC16</t>
-  </si>
-  <si>
-    <t>"State" field, letter only</t>
-  </si>
-  <si>
-    <t>Califirnia</t>
-  </si>
-  <si>
-    <t>Tipe "Califirnia" in "State" field</t>
-  </si>
-  <si>
-    <t>"State" field accepted</t>
-  </si>
-  <si>
-    <t>NC17</t>
-  </si>
-  <si>
-    <t>"State" field, letter + digits</t>
-  </si>
-  <si>
-    <t>Ca1ifirnia</t>
-  </si>
-  <si>
-    <t>Tipe "Ca1ifirnia" in "State" field</t>
-  </si>
-  <si>
-    <t>NC18</t>
-  </si>
-  <si>
-    <t>"State" field, letter + sp. characters</t>
-  </si>
-  <si>
-    <t>Ca!ifirnia</t>
-  </si>
-  <si>
-    <t>Tipe "Ca!ifirnia" in "State" field</t>
-  </si>
-  <si>
-    <t>NC19</t>
-  </si>
-  <si>
-    <t>"State" field starts with space character</t>
-  </si>
-  <si>
-    <t>" Califirnia"</t>
-  </si>
-  <si>
-    <t>Tipe " Califirnia" in "State" field (start with space character)</t>
-  </si>
-  <si>
-    <t>NC20</t>
-  </si>
-  <si>
-    <t>"State" required field</t>
-  </si>
-  <si>
     <t>1) Navigate mouse pointer over the "State" field and select it
-2) Do not tipe any value in  "State" field
+2) Do not type any value in  "State" field
 3) Press "TAB" and move to next field</t>
   </si>
   <si>
-    <t>"State must not be blank" error message</t>
-  </si>
-  <si>
-    <t>NC21</t>
-  </si>
-  <si>
-    <t>"PIN" field, digits only</t>
-  </si>
-  <si>
-    <t>Tipe "111111" in "PIN" field</t>
-  </si>
-  <si>
-    <t>"PIN" accepted</t>
-  </si>
-  <si>
-    <t>NC22</t>
-  </si>
-  <si>
-    <t>"PIN" field boundary values, more than 6 character</t>
-  </si>
-  <si>
-    <t>Tipe "1111111" in "PIN" field (7 cheracters)</t>
-  </si>
-  <si>
-    <t>First 6 haracters tiped</t>
-  </si>
-  <si>
-    <t>NC23</t>
-  </si>
-  <si>
-    <t>"PIN" field boundary values, less than 6 character</t>
-  </si>
-  <si>
-    <t>Tipe "11111" in "PIN" field (5 cheracters)</t>
-  </si>
-  <si>
-    <t>"PIN Code must have 6 Digits" error message</t>
-  </si>
-  <si>
-    <t>NC24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"PIN" field, digits + letter </t>
-  </si>
-  <si>
-    <t>11111I</t>
-  </si>
-  <si>
-    <t>Tipe "11111I" in "PIN" field</t>
-  </si>
-  <si>
-    <t>"Characters are not allowed" error message</t>
-  </si>
-  <si>
-    <t>NC25</t>
-  </si>
-  <si>
-    <t>"PIN" field, letter + sp. characters</t>
-  </si>
-  <si>
-    <t>11111/</t>
-  </si>
-  <si>
-    <t>Tipe "11111/" in "PIN" field</t>
-  </si>
-  <si>
-    <t>NC26</t>
-  </si>
-  <si>
-    <t>"PIN" field starts with space character</t>
-  </si>
-  <si>
-    <t>" 11111"</t>
-  </si>
-  <si>
-    <t>Tipe " 11111" in "PIN" field (start with space character)</t>
-  </si>
-  <si>
-    <t>NC27</t>
-  </si>
-  <si>
-    <t>"PIN" required field</t>
-  </si>
-  <si>
     <t>1) Navigate mouse pointer over the "Pin" field and select it
-2) Do not tipe any value in  "PIN" field
+2) Do not type any value in  "PIN" field
 3) Press "TAB" and move to next field</t>
   </si>
   <si>
-    <t>"PIN Code must not be blank" error message</t>
-  </si>
-  <si>
-    <t>NC28</t>
-  </si>
-  <si>
-    <t>"Telephone Number" field, digits only</t>
-  </si>
-  <si>
-    <t>Tipe "15146708700" in "Telephone Number" field</t>
-  </si>
-  <si>
-    <t>"Telephone Number" accepted</t>
-  </si>
-  <si>
-    <t>NC29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Telephone Number" field, digits + letter </t>
-  </si>
-  <si>
-    <t>1514670870o</t>
-  </si>
-  <si>
-    <t>Tipe "1514670870o" in "Telephone Number" field</t>
-  </si>
-  <si>
-    <t>NC30</t>
-  </si>
-  <si>
-    <t>"Telephone Number" field, letter + sp. characters</t>
-  </si>
-  <si>
-    <t>151-46-70-8700</t>
-  </si>
-  <si>
-    <t>Tipe "151-46-70-8700" in "Telephone Number" field</t>
-  </si>
-  <si>
-    <t>NC31</t>
-  </si>
-  <si>
-    <t>"Telephone Number" field starts with space character</t>
-  </si>
-  <si>
-    <t>" 15146708700"</t>
-  </si>
-  <si>
-    <t>Tipe " 15146708700" in "Telephone Number" field (start with space character)</t>
-  </si>
-  <si>
-    <t>NC32</t>
-  </si>
-  <si>
-    <t>"Telephone Number" field contain space character</t>
-  </si>
-  <si>
-    <t>151 46 70 8700</t>
-  </si>
-  <si>
-    <t>Tipe "151 46 70 8700" in "Telephone Number" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Telephone cannot have space" error message </t>
-  </si>
-  <si>
-    <t>NC33</t>
-  </si>
-  <si>
-    <t>"Telephone Number" required field</t>
-  </si>
-  <si>
     <t>1) Navigate mouse pointer over the "Telephone Numbern" field and select it
-2) Do not tipe any value in  "Telephone Number" field
+2) Do not type any value in  "Telephone Number" field
 3) Press "TAB" and move to next field</t>
   </si>
   <si>
-    <t>"Telephone Number must not be blank" error message</t>
-  </si>
-  <si>
-    <t>NC34</t>
-  </si>
-  <si>
-    <t>Valid local/@/valid domain</t>
-  </si>
-  <si>
-    <t>johndoe_273@gmail.com</t>
-  </si>
-  <si>
-    <t>Tipe "johndoe_273@gmail.com" in "Email" field</t>
-  </si>
-  <si>
-    <t>Email accepted</t>
-  </si>
-  <si>
-    <t>NC38</t>
-  </si>
-  <si>
-    <t>Invalid local part/@/ valid domain</t>
-  </si>
-  <si>
-    <t>.johndoe_273@gmail.com</t>
-  </si>
-  <si>
-    <t>Tipe ".johndoe_273@gmail.com" in "Email" field</t>
-  </si>
-  <si>
-    <t>Email rejected, "Email-ID is not valid" Error message</t>
-  </si>
-  <si>
-    <t>NC39</t>
-  </si>
-  <si>
-    <t>valid local part/@/invalid domain</t>
-  </si>
-  <si>
-    <t>johndoe273_@gmail..com</t>
-  </si>
-  <si>
-    <t>Tipe "johndoe_273@gmail..com" in "Email" field</t>
-  </si>
-  <si>
-    <t>NC40</t>
-  </si>
-  <si>
-    <t>empty local part /@/valid domain</t>
-  </si>
-  <si>
-    <t>@gmail.com</t>
-  </si>
-  <si>
-    <t>Tipe "@gmail.com" in "Email" field</t>
-  </si>
-  <si>
-    <t>NC41</t>
-  </si>
-  <si>
-    <t>valid local part /no @/valid domain</t>
-  </si>
-  <si>
-    <t>johndoe_273gmail.com</t>
-  </si>
-  <si>
-    <t>Tipe "johndoe_273gmail.com" in "Email" field</t>
-  </si>
-  <si>
-    <t>Email rejected, "invalid Email" Error message</t>
-  </si>
-  <si>
-    <t>NC42</t>
-  </si>
-  <si>
-    <t>"Email" required field</t>
-  </si>
-  <si>
-    <t>Empty "Email" field</t>
-  </si>
-  <si>
     <t>1) Navigate mouse pointer over the "Email" field and select it
-2) Do not tipe any value in  "Email" field
+2) Do not type any value in  "Email" field
 3) Press "TAB" and move to next field</t>
-  </si>
-  <si>
-    <t>"Email must not be blank" error message</t>
   </si>
 </sst>
 </file>
@@ -1052,8 +1052,8 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,890 +1102,890 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>54</v>
+        <v>177</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C22" s="10">
         <v>111111</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C23" s="10">
         <v>1111111</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C24" s="10">
         <v>11111</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="C29" s="10">
         <v>15146708700</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="E35" s="4" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
